--- a/data/Cahier des charges technique.xlsx
+++ b/data/Cahier des charges technique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D604C6-6CA1-4B87-955D-8DAB76E0C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCE68C4-58DA-49FB-81ED-9FFE5DDBA8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
   <si>
     <t>Nom du groupe :</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Concept du jeu, règles (au propre)</t>
   </si>
   <si>
-    <t>Faire les menus(reglages et tt)</t>
-  </si>
-  <si>
     <t>Histoire</t>
   </si>
   <si>
@@ -377,13 +374,31 @@
   </si>
   <si>
     <t>Groupe : 5 étudiants à l'EPITA, qui vont partir à la découverte du nouveau monde comme Luffy au chapeau de paille. Notre premier ennemi sera Pythonland.               Jeu : Coop multijoueur (5max) d'exploration. Vous vous retrouvez dans les souterrains du royaume (2d one shot) pour tuer le boss et arriver à s'echapper.</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>PROGRAMMATION</t>
+  </si>
+  <si>
+    <t>CONCEPT</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>Fais dans les temps</t>
+  </si>
+  <si>
+    <t>En avance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -428,8 +443,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +490,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -654,9 +687,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -673,12 +703,59 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -706,7 +783,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -714,6 +790,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -731,32 +810,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -773,40 +831,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1213,7 +1285,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1225,39 +1297,39 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1266,10 +1338,10 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1281,10 +1353,10 @@
       <c r="B6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>77</v>
       </c>
@@ -1296,10 +1368,10 @@
       <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>77</v>
       </c>
@@ -1311,10 +1383,10 @@
       <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
@@ -1326,10 +1398,10 @@
       <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="3" t="s">
         <v>77</v>
       </c>
@@ -1341,10 +1413,10 @@
       <c r="B10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>77</v>
       </c>
@@ -1357,138 +1429,138 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="64"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1508,7 +1580,7 @@
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1522,16 +1594,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1539,16 +1611,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -1559,41 +1631,41 @@
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
     </row>
     <row r="33" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1601,7 +1673,7 @@
       <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -1610,7 +1682,7 @@
       <c r="D36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="48"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
@@ -1619,28 +1691,28 @@
       <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="34"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -1664,55 +1736,55 @@
       <c r="D40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="30"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
@@ -1721,37 +1793,37 @@
       <c r="B45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="30"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -1763,40 +1835,28 @@
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
     </row>
     <row r="50" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
     </row>
     <row r="51" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E25"/>
@@ -1813,6 +1873,18 @@
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{C7984976-5428-427E-8AF2-BD8E6FE6E81B}"/>
@@ -1828,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1840,14 +1912,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1892,26 +1964,26 @@
         <v>91</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="C5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
@@ -1920,20 +1992,20 @@
         <v>95</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="59" t="s">
-        <v>108</v>
+      <c r="A7" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="17"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1942,70 +2014,70 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="59" t="s">
-        <v>103</v>
+      <c r="A9" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="16"/>
+        <v>99</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="17"/>
+      <c r="A14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
@@ -2032,29 +2104,29 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="11" t="s">
         <v>71</v>
       </c>
@@ -2066,237 +2138,271 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="66">
-        <v>1</v>
-      </c>
+      <c r="A21" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="66">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="80">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="80">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23">
         <v>0.5</v>
       </c>
-      <c r="E22" s="66">
+      <c r="F26" s="23">
         <v>1</v>
       </c>
-      <c r="F22" s="66"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="66">
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="80">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="79">
         <v>0.5</v>
       </c>
-      <c r="E23" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="F23" s="66">
+      <c r="E30" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="66">
+      <c r="F30" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="80">
+        <v>0</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="79">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="80">
         <v>0.2</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E35" s="23">
         <v>0.5</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F35" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="F25" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="66">
-        <v>0</v>
-      </c>
-      <c r="E26" s="66">
-        <v>0.3</v>
-      </c>
-      <c r="F26" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="66">
-        <v>1</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="66">
-        <v>0</v>
-      </c>
-      <c r="E28" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="66">
-        <v>0.9</v>
-      </c>
-      <c r="E29" s="66">
-        <v>1</v>
-      </c>
-      <c r="F29" s="66"/>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="66">
-        <v>0.9</v>
-      </c>
-      <c r="E30" s="66">
-        <v>1</v>
-      </c>
-      <c r="F30" s="66"/>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="66">
-        <v>0.6</v>
-      </c>
-      <c r="F31" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="66">
-        <v>0.3</v>
-      </c>
-      <c r="E32" s="66">
-        <v>1</v>
-      </c>
-      <c r="F32" s="66"/>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
     <row r="36" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="E36" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
